--- a/data/coded_segments/zm_7_1.xlsx
+++ b/data/coded_segments/zm_7_1.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Whiting/Repositories/amr-db/data/coded_segments_rename/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F88C5C5-50B4-304E-B727-C7A50B03EA53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1761,7 +1757,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1911,10 +1907,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1937,7 +1936,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1981,7 +1986,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1993,7 +1998,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -2010,9 +2015,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2040,14 +2045,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2075,6 +2097,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2226,7 +2265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M207"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -2284,7 +2323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -2325,7 +2364,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -2366,7 +2405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -2448,7 +2487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -2489,7 +2528,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -2530,7 +2569,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -2571,7 +2610,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -2612,7 +2651,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -2653,7 +2692,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -2694,7 +2733,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -2735,7 +2774,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -4047,7 +4086,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>13</v>
       </c>
@@ -4088,7 +4127,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>13</v>
       </c>
@@ -5933,7 +5972,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>13</v>
       </c>
@@ -6138,7 +6177,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>13</v>
       </c>
@@ -6220,7 +6259,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>13</v>
       </c>
@@ -7614,7 +7653,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>13</v>
       </c>
@@ -9049,7 +9088,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -9172,7 +9211,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>13</v>
       </c>
@@ -9295,7 +9334,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>13</v>
       </c>
@@ -9377,7 +9416,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -9459,7 +9498,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
         <v>13</v>
       </c>
@@ -9500,7 +9539,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
         <v>13</v>
       </c>
@@ -9582,7 +9621,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
         <v>13</v>
       </c>
@@ -9623,7 +9662,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
         <v>13</v>
       </c>
@@ -10484,7 +10523,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>13</v>
       </c>
@@ -10687,7 +10726,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>13</v>
       </c>

--- a/data/coded_segments/zm_7_1.xlsx
+++ b/data/coded_segments/zm_7_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F88C5C5-50B4-304E-B727-C7A50B03EA53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20F6022C-8F7F-284D-8765-3460BDF2775A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="569">
   <si>
     <t>Color</t>
   </si>
@@ -1752,6 +1752,33 @@
 Zambian prisons, with significant rates of drug resis- 
 tance and MDR-TB, highlighting the need for active sur- 
 veillance and treatment programs.</t>
+  </si>
+  <si>
+    <t>chen</t>
+  </si>
+  <si>
+    <t>1/31/19 13:54:31</t>
+  </si>
+  <si>
+    <t>1/31/19 13:55:01</t>
+  </si>
+  <si>
+    <t>1/31/19 13:55:07</t>
+  </si>
+  <si>
+    <t>1/31/19 13:55:11</t>
+  </si>
+  <si>
+    <t>1/31/19 13:55:15</t>
+  </si>
+  <si>
+    <t>1/31/19 13:55:31</t>
+  </si>
+  <si>
+    <t>1/31/19 13:55:35</t>
+  </si>
+  <si>
+    <t>1/31/19 13:56:14</t>
   </si>
 </sst>
 </file>
@@ -2266,7 +2293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M207"/>
+  <dimension ref="A1:M215"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10767,6 +10794,334 @@
         <v>555</v>
       </c>
     </row>
+    <row r="208" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A208" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H208" s="3">
+        <v>0</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J208" s="3">
+        <v>4</v>
+      </c>
+      <c r="K208" s="4">
+        <v>1.2445163498335458E-2</v>
+      </c>
+      <c r="L208" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="M208" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A209" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H209" s="3">
+        <v>0</v>
+      </c>
+      <c r="I209" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J209" s="3">
+        <v>4</v>
+      </c>
+      <c r="K209" s="4">
+        <v>2.46290253063235E-2</v>
+      </c>
+      <c r="L209" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="M209" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A210" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H210" s="3">
+        <v>0</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J210" s="3">
+        <v>4</v>
+      </c>
+      <c r="K210" s="4">
+        <v>2.46290253063235E-2</v>
+      </c>
+      <c r="L210" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="M210" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A211" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H211" s="3">
+        <v>0</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J211" s="3">
+        <v>4</v>
+      </c>
+      <c r="K211" s="4">
+        <v>2.46290253063235E-2</v>
+      </c>
+      <c r="L211" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="M211" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A212" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H212" s="3">
+        <v>0</v>
+      </c>
+      <c r="I212" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J212" s="3">
+        <v>4</v>
+      </c>
+      <c r="K212" s="4">
+        <v>2.46290253063235E-2</v>
+      </c>
+      <c r="L212" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="M212" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A213" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H213" s="3">
+        <v>0</v>
+      </c>
+      <c r="I213" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J213" s="3">
+        <v>3</v>
+      </c>
+      <c r="K213" s="4">
+        <v>1.8471768979742627E-2</v>
+      </c>
+      <c r="L213" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="M213" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A214" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H214" s="3">
+        <v>0</v>
+      </c>
+      <c r="I214" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J214" s="3">
+        <v>3</v>
+      </c>
+      <c r="K214" s="4">
+        <v>1.8471768979742627E-2</v>
+      </c>
+      <c r="L214" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="M214" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A215" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H215" s="3">
+        <v>0</v>
+      </c>
+      <c r="I215" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="J215" s="3">
+        <v>3</v>
+      </c>
+      <c r="K215" s="4">
+        <v>1.3383894713361589E-2</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="M215" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
